--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1710505.506918893</v>
+        <v>-1712921.026419038</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>174.2511851647546</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>34.12712969968886</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>85.92645860395726</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>130.8951884589056</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>304.6865213316316</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>51.33268671918118</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>68.25327490405887</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>162.3364906735233</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>181.6875226710789</v>
       </c>
       <c r="G8" t="n">
-        <v>150.8020682067238</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>178.9253501451547</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>55.84003136202612</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1427,7 +1427,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>150.2062474346991</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>97.94553054490764</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>134.5451715059194</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>173.7172817388085</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>152.3296141367689</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>227.2788972177067</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67804628306413</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>166.2700604784295</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>242.9119167400405</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575759</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704453</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124493</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572827</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1033.706340666639</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>647.9180880683944</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2177.709280319473</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2177.709280319473</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>2177.709280319473</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y2" t="n">
-        <v>2177.709280319473</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.4236418782189</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>484.4236418782189</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>334.3070024658831</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>186.39390888349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782189</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782189</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.4236418782189</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780785</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1253.353745540124</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1253.353745540124</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>842.3678407505161</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1919.063478780785</v>
+        <v>1998.219284210996</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>659.1862822831424</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1483.703156598057</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C8" t="n">
-        <v>1483.703156598057</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D8" t="n">
-        <v>1483.703156598057</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="E8" t="n">
-        <v>1097.914903999813</v>
+        <v>808.8955160998948</v>
       </c>
       <c r="F8" t="n">
-        <v>686.9289992102051</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.703156598057</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
         <v>222.942782082032</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>369.8327295799424</v>
+        <v>671.7249121235795</v>
       </c>
       <c r="W10" t="n">
-        <v>369.8327295799424</v>
+        <v>671.7249121235795</v>
       </c>
       <c r="X10" t="n">
-        <v>369.8327295799424</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5045,16 +5045,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5066,13 +5066,13 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5139,28 +5139,28 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y12" t="n">
         <v>1138.808109517387</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>558.6274977408367</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1523.103642431786</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V13" t="n">
-        <v>1523.103642431786</v>
+        <v>1478.475262649585</v>
       </c>
       <c r="W13" t="n">
-        <v>1523.103642431786</v>
+        <v>1189.058092612624</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431786</v>
+        <v>961.0685417146066</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>740.2759625710764</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.8867116300491</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C16" t="n">
-        <v>192.8867116300491</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D16" t="n">
-        <v>192.8867116300491</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
         <v>192.8867116300491</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1367.418964744684</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>1112.734476538797</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W16" t="n">
-        <v>823.3173065018362</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X16" t="n">
-        <v>595.3277556038189</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y16" t="n">
-        <v>374.5351764602888</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,43 +5498,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.8067350374723</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
         <v>192.8867116300491</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1712.644711754384</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1712.644711754384</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1712.644711754384</v>
       </c>
       <c r="V19" t="n">
-        <v>1024.21345597245</v>
+        <v>1712.644711754384</v>
       </c>
       <c r="W19" t="n">
-        <v>734.7962859354897</v>
+        <v>1423.227541717424</v>
       </c>
       <c r="X19" t="n">
-        <v>506.8067350374723</v>
+        <v>1195.237990819406</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.8067350374723</v>
+        <v>974.4454116758762</v>
       </c>
     </row>
     <row r="20">
@@ -5768,28 +5768,28 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>409.4810578558177</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C22" t="n">
-        <v>409.4810578558177</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D22" t="n">
-        <v>409.4810578558177</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E22" t="n">
         <v>409.4810578558177</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1913.234328445043</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1691.467713014569</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1402.364846140213</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V22" t="n">
-        <v>1147.680357934326</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W22" t="n">
-        <v>858.2631878973651</v>
+        <v>1506.87756865024</v>
       </c>
       <c r="X22" t="n">
-        <v>630.2736369993478</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y22" t="n">
-        <v>409.4810578558177</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,67 +5972,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1034.340101969334</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1297.525394036369</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6239,37 +6239,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C28" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G28" t="n">
         <v>244.2046325160447</v>
@@ -6379,7 +6379,7 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>187.1890521477366</v>
@@ -6388,7 +6388,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,13 +6403,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R28" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T28" t="n">
         <v>1967.452490122057</v>
@@ -6418,7 +6418,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
         <v>1276.596863849073</v>
@@ -6427,7 +6427,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1797.117834600128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2330.649739272053</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N29" t="n">
-        <v>2877.428556330835</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774088</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E31" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932519</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160441</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819752</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490193</v>
       </c>
       <c r="L31" t="n">
         <v>800.7468040499223</v>
@@ -6658,13 +6658,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036714</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,7 +6816,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D34" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,7 +6877,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
@@ -6895,13 +6895,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6968,19 +6968,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7029,25 +7029,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C37" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7114,31 +7114,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123955</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7205,19 +7205,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7242,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477364</v>
+        <v>187.1890521477365</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7354,28 +7354,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7436,25 +7436,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7494,7 +7494,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819756</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499225</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,19 +7725,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160445</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7831,7 +7831,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.713999703672</v>
       </c>
     </row>
   </sheetData>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,19 +8693,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>248.8400772687157</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>251.1867816683982</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0304280898992</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>314.5564971416987</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476831</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>119.2097435783097</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>293.6251287704461</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>313.9665298781022</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0055907709138</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>154.1921127789204</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>45.2868086760179</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23701,13 +23701,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>112.4945564668043</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>37.43941119467297</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>24.85874610612126</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>147.0909790483778</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>120.2529378581615</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>43.2999214655724</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-2.106611309477838e-13</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>6.323830348264892e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1307871.385772205</v>
+        <v>1307871.385772206</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1307871.385772205</v>
+        <v>1307871.385772206</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89266.66910111636</v>
+        <v>89266.66910111631</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,28 +26320,28 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>99270.44672174577</v>
+        <v>99270.44672174579</v>
       </c>
       <c r="F2" t="n">
         <v>99270.44672174576</v>
       </c>
       <c r="G2" t="n">
-        <v>99270.44672174577</v>
+        <v>99270.44672174579</v>
       </c>
       <c r="H2" t="n">
         <v>99270.44672174574</v>
       </c>
       <c r="I2" t="n">
-        <v>99270.44672174579</v>
+        <v>99270.44672174576</v>
       </c>
       <c r="J2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="K2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="L2" t="n">
         <v>102630.2212330352</v>
-      </c>
-      <c r="K2" t="n">
-        <v>102630.2212330352</v>
-      </c>
-      <c r="L2" t="n">
-        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330354</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122328.882300821</v>
+        <v>122328.8823008209</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26427,37 +26427,37 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918987</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="J4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740901</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26488,7 +26488,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>100332.6710141021</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705889.1704776584</v>
+        <v>-706156.4415202967</v>
       </c>
       <c r="C6" t="n">
         <v>-163577.5436875021</v>
@@ -26528,40 +26528,40 @@
         <v>-163577.543687502</v>
       </c>
       <c r="E6" t="n">
-        <v>-742638.9778445646</v>
+        <v>-742706.1733347903</v>
       </c>
       <c r="F6" t="n">
-        <v>-15261.56385115777</v>
+        <v>-15328.75934138359</v>
       </c>
       <c r="G6" t="n">
-        <v>-15261.56385115779</v>
+        <v>-15328.75934138361</v>
       </c>
       <c r="H6" t="n">
-        <v>-15261.56385115784</v>
+        <v>-15328.75934138362</v>
       </c>
       <c r="I6" t="n">
-        <v>-15261.56385115776</v>
+        <v>-15328.75934138362</v>
       </c>
       <c r="J6" t="n">
-        <v>-245311.4315659428</v>
+        <v>-245311.4315659427</v>
       </c>
       <c r="K6" t="n">
-        <v>-31308.10307847585</v>
+        <v>-31308.10307847575</v>
       </c>
       <c r="L6" t="n">
-        <v>-31308.10307847572</v>
+        <v>-31308.10307847583</v>
       </c>
       <c r="M6" t="n">
-        <v>-160950.4179174205</v>
+        <v>-160950.4179174206</v>
       </c>
       <c r="N6" t="n">
-        <v>-31308.1030784757</v>
+        <v>-31308.10307847576</v>
       </c>
       <c r="O6" t="n">
-        <v>-68888.21237334982</v>
+        <v>-68888.21237334979</v>
       </c>
       <c r="P6" t="n">
-        <v>-31308.10307847575</v>
+        <v>-31308.10307847576</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>113.4151169986472</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>55.76457080036687</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>59.49458941897399</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>94.8144669301316</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>109.0976486891633</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>334.9052519368724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>183.8843684197691</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>63.37316471551381</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>225.1885230706326</v>
       </c>
       <c r="G8" t="n">
-        <v>262.9821018140711</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>33.22018880486422</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>196.2976119618019</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,13 +28324,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>801.1419126816272</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>588.3780682237987</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>866.6205424822314</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>866.8583325546102</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359025</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -37956,7 +37956,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
